--- a/AAFC SNS 경로.xlsx
+++ b/AAFC SNS 경로.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="324" yWindow="504" windowWidth="28128" windowHeight="14052"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>지점명</t>
   </si>
@@ -19,25 +22,12 @@
     <t>인스타 주소</t>
   </si>
   <si>
-    <t xml:space="preserve">일산백석 </t>
-  </si>
-  <si>
     <t>https://www.instagram.com/aafc.goyang</t>
   </si>
   <si>
     <t>충암</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.instagram.com/aafc_footballclub</t>
-    </r>
-  </si>
-  <si>
     <t>유석(취미반)</t>
   </si>
   <si>
@@ -48,92 +38,138 @@
   </si>
   <si>
     <t>https://www.instagram.com/aafc.yooseok</t>
+  </si>
+  <si>
+    <t>일산백석</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_footballclub</t>
+  </si>
+  <si>
+    <t>광명</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_gwangmyeong</t>
+  </si>
+  <si>
+    <t>시흥</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_siheung</t>
+  </si>
+  <si>
+    <t>안산선부</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_ansan_seonbu</t>
+  </si>
+  <si>
+    <t>청원(취미반)</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_cheongwon_official</t>
+  </si>
+  <si>
+    <t>청원(선수반)</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_cheongwon</t>
+  </si>
+  <si>
+    <t>화랑</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_hwarang_u12</t>
+  </si>
+  <si>
+    <t>광운</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_kwangwoon_</t>
+  </si>
+  <si>
+    <t>남양주</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_space1_hwarang</t>
+  </si>
+  <si>
+    <t>잠실</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_zettaplex</t>
+  </si>
+  <si>
+    <t>대청</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aafc_daecheong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FFBCBEC4"/>
-      <name val="&quot;JetBrains Mono&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E1F22"/>
-        <bgColor rgb="FF1E1F22"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -323,23 +359,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.88"/>
+    <col min="1" max="1" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -347,45 +388,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-  </hyperlinks>
-  <drawing r:id="rId5"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>